--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
